--- a/chude5_Excel/buoi11/de2.xlsx
+++ b/chude5_Excel/buoi11/de2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C7F847-72F2-4448-959B-06128E044F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28FC1A-B31B-487C-967B-C1CC2BFFFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1FAB5D4-C04B-4BF8-B9EE-06548C6A087A}"/>
   </bookViews>
@@ -258,11 +258,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +288,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5343525" cy="2743200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="3714750"/>
+          <a:ext cx="5343525" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>553916</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,11 +701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85F64EE-185A-48BB-A192-ED5D1A0FF330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85F64EE-185A-48BB-A192-ED5D1A0FF330}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,20 +713,20 @@
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -647,7 +762,10 @@
       <c r="C3" s="6">
         <v>200</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="str">
+        <f>VLOOKUP(LEFT(B3,1),$A$12:$D$14,2,0)</f>
+        <v>Sách giáo khoa</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="1"/>
@@ -663,7 +781,10 @@
       <c r="C4" s="6">
         <v>120</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="str">
+        <f t="shared" ref="D4:D7" si="0">VLOOKUP(LEFT(B4,1),$A$12:$D$14,2,0)</f>
+        <v>Vở học sinh</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="1"/>
@@ -679,7 +800,10 @@
       <c r="C5" s="6">
         <v>145</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sách giáo khoa</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="1"/>
@@ -695,7 +819,10 @@
       <c r="C6" s="6">
         <v>90</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sách kỹ thuật</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="1"/>
@@ -711,7 +838,10 @@
       <c r="C7" s="6">
         <v>110</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Vở học sinh</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
@@ -728,16 +858,16 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -753,9 +883,9 @@
         <v>17</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -765,9 +895,9 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -783,9 +913,9 @@
         <v>32</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -801,9 +931,9 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -819,9 +949,9 @@
         <v>24</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -838,5 +968,35 @@
     <mergeCell ref="F10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>